--- a/datamining/final_data/sum1961_nltk.xlsx
+++ b/datamining/final_data/sum1961_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EG2"/>
+  <dimension ref="A1:DJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,660 +457,545 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>his</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>4th-grade</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>acceleration</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>4th-grade</t>
+          <t>controlled</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>experiment</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>acceleration</t>
+          <t>children</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>controlled</t>
+          <t>elementary-school</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>experiment</t>
+          <t>gifted</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>from</t>
+          <t>program</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>science</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>special</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>counseling</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>elementary-school</t>
+          <t>gifted-child</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>pastoral</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>gifted</t>
+          <t>american</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>book</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>science</t>
+          <t>copley</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>special</t>
+          <t>fo</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>high-school</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>counseling</t>
+          <t>review</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>gifted-child</t>
+          <t>student</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>pastoral</t>
+          <t>talented</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>american</t>
+          <t>adjustment</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>attitudes</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>copley</t>
+          <t>casual</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>fo</t>
+          <t>factor</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>high-school</t>
+          <t>socio-personal</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>study</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>toward</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>talented</t>
+          <t>history</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>adjustment</t>
+          <t>must</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>repeat</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>attitudes</t>
+          <t>cause</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>casual</t>
+          <t>concern</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>factor</t>
+          <t>creatively</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>of</t>
+          <t>high-achieving</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>socio-personal</t>
+          <t>junior-high</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>low-achieving</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>toward</t>
+          <t>preferences</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>school</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>itself</t>
+          <t>students</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>must</t>
+          <t>vocational</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>repeat</t>
+          <t>gifted-children</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>are</t>
+          <t>in-service</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>cause</t>
+          <t>teachers</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>concern</t>
+          <t>concept</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>creatively</t>
+          <t>giftedness</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>high-achieving</t>
+          <t>philosophies</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>junior-high</t>
+          <t>social</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>low-achieving</t>
+          <t>annotated-bibliography</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>preferences</t>
+          <t>cassidy</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>flesher</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>students</t>
+          <t>selected</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>vocational</t>
+          <t>academically</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>drews</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>gifted-children</t>
+          <t>guidance</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>in-service</t>
+          <t>education</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>teachers</t>
+          <t>freehill</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>with</t>
+          <t>mf</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>concept</t>
+          <t>psychology</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>giftedness</t>
+          <t>creative</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>philosophies</t>
+          <t>highly</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>problems</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>annotated-bibliography</t>
+          <t>arousing</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>cassidy</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>flesher</t>
+          <t>sustaining</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>pupils</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>reactions</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>selected</t>
+          <t>church</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>nurturing</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>academically</t>
+          <t>response</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>drews</t>
+          <t>adults</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>guidance</t>
+          <t>sources</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>college</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>freehill</t>
+          <t>hunter</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>mf</t>
+          <t>art</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>psychology</t>
+          <t>music</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>their</t>
+          <t>new-york-city</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>creative</t>
+          <t>bronx</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>highly</t>
+          <t>community</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>problems</t>
+          <t>parents</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>arousing</t>
+          <t>participation</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>unique</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>sustaining</t>
+          <t>kough</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>pupils</t>
+          <t>practical</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>reactions</t>
+          <t>programs</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>church</t>
+          <t>approaches</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>nurturing</t>
+          <t>cw</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>response</t>
+          <t>new</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>adults</t>
+          <t>woolcock</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>laboratory</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>sources</t>
+          <t>research-program</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>college</t>
+          <t>scientists</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>hunter</t>
+          <t>young</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>art</t>
+          <t>italian</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>music</t>
+          <t>schools</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>new-york-city</t>
+          <t>psychiatrist</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>at</t>
+          <t>childs</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>bronx</t>
+          <t>lament</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>community</t>
+          <t>million</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>parents</t>
+          <t>one</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>participation</t>
+          <t>guide</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>unique</t>
+          <t>knowing</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>kough</t>
+          <t>child-rearing</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>practical</t>
+          <t>neill</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>programs</t>
+          <t>radical</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
-        <is>
-          <t>approaches</t>
-        </is>
-      </c>
-      <c r="DK1" s="1" t="inlineStr">
-        <is>
-          <t>cw</t>
-        </is>
-      </c>
-      <c r="DL1" s="1" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
-      <c r="DM1" s="1" t="inlineStr">
-        <is>
-          <t>woolcock</t>
-        </is>
-      </c>
-      <c r="DN1" s="1" t="inlineStr">
-        <is>
-          <t>laboratory</t>
-        </is>
-      </c>
-      <c r="DO1" s="1" t="inlineStr">
-        <is>
-          <t>research-program</t>
-        </is>
-      </c>
-      <c r="DP1" s="1" t="inlineStr">
-        <is>
-          <t>scientists</t>
-        </is>
-      </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>young</t>
-        </is>
-      </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>italian</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>schools</t>
-        </is>
-      </c>
-      <c r="DT1" s="1" t="inlineStr">
-        <is>
-          <t>psychiatrist</t>
-        </is>
-      </c>
-      <c r="DU1" s="1" t="inlineStr">
-        <is>
-          <t>childs</t>
-        </is>
-      </c>
-      <c r="DV1" s="1" t="inlineStr">
-        <is>
-          <t>lament</t>
-        </is>
-      </c>
-      <c r="DW1" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="DX1" s="1" t="inlineStr">
-        <is>
-          <t>million</t>
-        </is>
-      </c>
-      <c r="DY1" s="1" t="inlineStr">
-        <is>
-          <t>one</t>
-        </is>
-      </c>
-      <c r="DZ1" s="1" t="inlineStr">
-        <is>
-          <t>guide</t>
-        </is>
-      </c>
-      <c r="EA1" s="1" t="inlineStr">
-        <is>
-          <t>knowing</t>
-        </is>
-      </c>
-      <c r="EB1" s="1" t="inlineStr">
-        <is>
-          <t>your</t>
-        </is>
-      </c>
-      <c r="EC1" s="1" t="inlineStr">
-        <is>
-          <t>approach</t>
-        </is>
-      </c>
-      <c r="ED1" s="1" t="inlineStr">
-        <is>
-          <t>child-rearing</t>
-        </is>
-      </c>
-      <c r="EE1" s="1" t="inlineStr">
-        <is>
-          <t>neill</t>
-        </is>
-      </c>
-      <c r="EF1" s="1" t="inlineStr">
-        <is>
-          <t>radical</t>
-        </is>
-      </c>
-      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>summerhill</t>
         </is>
@@ -1124,286 +1009,286 @@
         <v>1961</v>
       </c>
       <c r="C2" t="n">
-        <v>0.52</v>
+        <v>0.58</v>
       </c>
       <c r="D2" t="n">
-        <v>0.52</v>
+        <v>0.58</v>
       </c>
       <c r="E2" t="n">
-        <v>0.52</v>
+        <v>0.58</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="G2" t="n">
-        <v>1.59</v>
+        <v>0.45</v>
       </c>
       <c r="H2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.9099999999999999</v>
+      </c>
+      <c r="AO2" t="n">
         <v>0.39</v>
       </c>
-      <c r="I2" t="n">
+      <c r="AP2" t="n">
         <v>0.39</v>
       </c>
-      <c r="J2" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="AQ2" t="n">
         <v>0.39</v>
       </c>
-      <c r="L2" t="n">
+      <c r="AR2" t="n">
         <v>0.39</v>
       </c>
-      <c r="M2" t="n">
+      <c r="AS2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AT2" t="n">
         <v>0.39</v>
       </c>
-      <c r="N2" t="n">
+      <c r="AU2" t="n">
         <v>0.39</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="V2" t="n">
+      <c r="AV2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AX2" t="n">
         <v>1.01</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.6799999999999999</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.6799999999999999</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.5900000000000001</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0.5</v>
       </c>
       <c r="AY2" t="n">
         <v>0.5</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.38</v>
+        <v>0.47</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.38</v>
+        <v>0.47</v>
       </c>
       <c r="BE2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="CB2" t="n">
         <v>0.65</v>
       </c>
-      <c r="BF2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="BH2" t="n">
+      <c r="CC2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="CH2" t="n">
         <v>0.47</v>
       </c>
-      <c r="BI2" t="n">
-        <v>0.9099999999999999</v>
-      </c>
-      <c r="BJ2" t="n">
+      <c r="CI2" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="CJ2" t="n">
         <v>0.47</v>
       </c>
-      <c r="BK2" t="n">
-        <v>0.8400000000000001</v>
-      </c>
-      <c r="BL2" t="n">
+      <c r="CK2" t="n">
         <v>0.47</v>
       </c>
-      <c r="BM2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>0.8899999999999999</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="CH2" t="n">
+      <c r="CL2" t="n">
         <v>0.54</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="CM2" t="n">
         <v>0.54</v>
       </c>
-      <c r="CJ2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>0.58</v>
-      </c>
       <c r="CN2" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.68</v>
+        <v>0.45</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="CS2" t="n">
         <v>0.5</v>
@@ -1412,121 +1297,52 @@
         <v>0.5</v>
       </c>
       <c r="CU2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CW2" t="n">
         <v>0.65</v>
       </c>
-      <c r="CV2" t="n">
+      <c r="CX2" t="n">
         <v>0.65</v>
       </c>
-      <c r="CW2" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>0.53</v>
-      </c>
       <c r="CY2" t="n">
-        <v>0.53</v>
+        <v>0.86</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.52</v>
+        <v>1.01</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.52</v>
+        <v>0.76</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.44</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="DC2" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="DJ2" t="n">
         <v>0.43</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>0.39</v>
       </c>
     </row>
   </sheetData>
